--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
   <si>
     <t xml:space="preserve">Company Sign Up Email</t>
   </si>
@@ -46,16 +46,16 @@
     <t xml:space="preserve">Emp Email</t>
   </si>
   <si>
-    <t xml:space="preserve">zuba@yopmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abigail Services Private Limited</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8964020649</t>
+    <t xml:space="preserve">tsl@yopmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ximena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benjamin Solutions Private Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9962137006</t>
   </si>
   <si>
     <t xml:space="preserve">TestaaoIV Innovations Inc.</t>
@@ -153,16 +153,16 @@
     <t xml:space="preserve">employeefour@yopmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Cecilia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yda3cx2y@mailcatch.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1f18220@mailcatch.com</t>
+    <t xml:space="preserve">Ursula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hcgfe93b@mailcatch.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penelope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bxmqhrpb@mailcatch.com</t>
   </si>
   <si>
     <t xml:space="preserve">Added Employees from inside the company - Emp name</t>
@@ -177,19 +177,19 @@
     <t xml:space="preserve">Email address</t>
   </si>
   <si>
-    <t xml:space="preserve">Nora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personalwd8gxhp9@mailcatch.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7096105605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">empwd8gxhp9@mailcatch.com</t>
+    <t xml:space="preserve">Emily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personalqfy5lfvz@mailcatch.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6684701842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empqfy5lfvz@mailcatch.com</t>
   </si>
   <si>
     <t xml:space="preserve">test_ListedCompanyAddEmp.py</t>
@@ -208,13 +208,13 @@
     <t xml:space="preserve">hd4hdqq@yopmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Eliza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6568006634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uryel4q20@mailcatch.com</t>
+    <t xml:space="preserve">Riley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9538233230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v1dqj7320@mailcatch.com</t>
   </si>
   <si>
     <t xml:space="preserve">Olivia Solutions Private Limited</t>
@@ -229,19 +229,19 @@
     <t xml:space="preserve">personalpe0cgo4@mailcatch.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Winston</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personalz9qmb3k7@mailcatch.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6258951751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">empz9qmb3k7@mailcatch.com</t>
+    <t xml:space="preserve">Daniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personalu4tm2ci9@mailcatch.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8755327548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empu4tm2ci9@mailcatch.com</t>
   </si>
   <si>
     <t xml:space="preserve">Anand(Company name</t>
@@ -265,13 +265,13 @@
     <t xml:space="preserve">j@yopmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Outsidesales Bob</t>
+    <t xml:space="preserve">software Alice</t>
   </si>
   <si>
     <t xml:space="preserve">kris@yopmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">internationalMarketingBob</t>
+    <t xml:space="preserve">MarketingAlice</t>
   </si>
   <si>
     <t xml:space="preserve">Emp Name Invite (Employees) 19. column company Name</t>
@@ -310,10 +310,7 @@
     <t xml:space="preserve">Certification name</t>
   </si>
   <si>
-    <t xml:space="preserve">CertificateKUpYU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zlnh927@yopmail.com</t>
+    <t xml:space="preserve">CertificateqVVdu</t>
   </si>
 </sst>
 </file>
@@ -323,7 +320,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,13 +380,6 @@
       <family val="0"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -458,7 +448,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -517,10 +507,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -772,9 +758,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1185,19 +1171,13 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="s">
-        <v>96</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="zuba@yopmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="tsl@yopmail.com"/>
     <hyperlink ref="K2" r:id="rId2" display="employeeone@yopmail.com"/>
     <hyperlink ref="K3" r:id="rId3" display="employeetwo@yopmail.com"/>
     <hyperlink ref="K4" r:id="rId4" display="employeethree@yopmail.com"/>
     <hyperlink ref="K5" r:id="rId5" display="employeefour@yopmail.com"/>
-    <hyperlink ref="A25" r:id="rId6" display="zlnh927@yopmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -46,13 +46,13 @@
     <t xml:space="preserve">Emp Email</t>
   </si>
   <si>
-    <t xml:space="preserve">tsl@yopmail.com</t>
+    <t xml:space="preserve">active@yopmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Ximena</t>
   </si>
   <si>
-    <t xml:space="preserve">Benjamin Solutions Private Limited</t>
+    <t xml:space="preserve">Active</t>
   </si>
   <si>
     <t xml:space="preserve">9962137006</t>
@@ -103,7 +103,7 @@
     <t xml:space="preserve">partner</t>
   </si>
   <si>
-    <t xml:space="preserve">q6484lk@yopmail.com</t>
+    <t xml:space="preserve">jyothi899@yopmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">TestGaHLI</t>
@@ -153,16 +153,16 @@
     <t xml:space="preserve">employeefour@yopmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Ursula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hcgfe93b@mailcatch.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Penelope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bxmqhrpb@mailcatch.com</t>
+    <t xml:space="preserve">named</t>
+  </si>
+  <si>
+    <t xml:space="preserve">named@yopmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natrajtwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natrajtwo@yopmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Added Employees from inside the company - Emp name</t>
@@ -320,7 +320,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,11 +344,25 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="4"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -448,36 +462,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -485,27 +491,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -761,7 +787,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.55078125" defaultRowHeight="27.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -814,7 +840,7 @@
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -826,16 +852,16 @@
       <c r="I2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -858,16 +884,16 @@
       <c r="I3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -890,13 +916,13 @@
       <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="8" t="s">
         <v>35</v>
       </c>
     </row>
@@ -920,28 +946,28 @@
       <c r="I5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="7"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="11" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
@@ -959,9 +985,9 @@
       <c r="E7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -979,12 +1005,12 @@
       <c r="E8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
@@ -1037,31 +1063,31 @@
       <c r="I10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
@@ -1131,38 +1157,38 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="17" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="17" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="13" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1173,11 +1199,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="tsl@yopmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="active@yopmail.com"/>
     <hyperlink ref="K2" r:id="rId2" display="employeeone@yopmail.com"/>
     <hyperlink ref="K3" r:id="rId3" display="employeetwo@yopmail.com"/>
-    <hyperlink ref="K4" r:id="rId4" display="employeethree@yopmail.com"/>
-    <hyperlink ref="K5" r:id="rId5" display="employeefour@yopmail.com"/>
+    <hyperlink ref="A4" r:id="rId4" display="jyothi899@yopmail.com"/>
+    <hyperlink ref="K4" r:id="rId5" display="employeethree@yopmail.com"/>
+    <hyperlink ref="K5" r:id="rId6" display="employeefour@yopmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -46,7 +46,7 @@
     <t xml:space="preserve">Emp Email</t>
   </si>
   <si>
-    <t xml:space="preserve">active@yopmail.com</t>
+    <t xml:space="preserve">zuba@yopmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Ximena</t>
@@ -363,6 +363,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -487,7 +488,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -787,7 +788,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.55078125" defaultRowHeight="27.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1199,7 +1200,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="active@yopmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="zuba@yopmail.com"/>
     <hyperlink ref="K2" r:id="rId2" display="employeeone@yopmail.com"/>
     <hyperlink ref="K3" r:id="rId3" display="employeetwo@yopmail.com"/>
     <hyperlink ref="A4" r:id="rId4" display="jyothi899@yopmail.com"/>
